--- a/ingredience.xlsx
+++ b/ingredience.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -55,11 +58,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -425,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:G54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,35 +445,1675 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>ingredience_sk</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>ingredience_rc</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>nazev</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>potreba</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>jednotka</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>koupeno</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>2025-01-01</t>
-        </is>
+      <c r="A2" s="2" t="n">
+        <v>45889</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Test</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D2" t="b">
+          <t>100</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Hovězí ořez na Biltong VL70-30</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>365.664</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>kg</t>
+        </is>
+      </c>
+      <c r="G2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>45889</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Hovězí loupaná plec</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>365.664</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>kg</t>
+        </is>
+      </c>
+      <c r="G3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>45889</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>126</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Ocet jablečný (10l)</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>10.97</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>kg</t>
+        </is>
+      </c>
+      <c r="G4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>45889</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>296</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Droewors Spice NO MSG 10kg</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>17.1864</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>kg</t>
+        </is>
+      </c>
+      <c r="G5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>45889</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>88</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Koření Piri Piri 1kg</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>3.6568</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>kg</t>
+        </is>
+      </c>
+      <c r="G6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45889</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>158</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Fine Gusto  FG VÍKO k malý bílý display DRIED MEAT + LOGO FG (238x105x193)</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>266.668</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>ks</t>
+        </is>
+      </c>
+      <c r="G7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45889</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Absorber HLS30R - kotouč (INDIANA)</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>4000</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>ks</t>
+        </is>
+      </c>
+      <c r="G8" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45889</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>352</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Karton 450x297x170 - univerzál</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>266.668</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>ks</t>
+        </is>
+      </c>
+      <c r="G9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45889</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>549</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Droëwors Piri Piri AFRIKA 40g</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>4000</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>ks</t>
+        </is>
+      </c>
+      <c r="G10" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45890</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Hovězí ořez na Biltong VL70-30</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>731.328</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>kg</t>
+        </is>
+      </c>
+      <c r="G11" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45890</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Hovězí loupaná plec</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>731.328</v>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>kg</t>
+        </is>
+      </c>
+      <c r="G12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45890</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>126</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Ocet jablečný (10l)</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>21.94</v>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>kg</t>
+        </is>
+      </c>
+      <c r="G13" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45890</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>296</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Droewors Spice NO MSG 10kg</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>34.3728</v>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>kg</t>
+        </is>
+      </c>
+      <c r="G14" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45890</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>88</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Koření Piri Piri 1kg</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>7.313600000000001</v>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>kg</t>
+        </is>
+      </c>
+      <c r="G15" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45890</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>158</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Fine Gusto  FG VÍKO k malý bílý display DRIED MEAT + LOGO FG (238x105x193)</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>533.336</v>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>ks</t>
+        </is>
+      </c>
+      <c r="G16" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45890</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Absorber HLS30R - kotouč (INDIANA)</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>8000</v>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>ks</t>
+        </is>
+      </c>
+      <c r="G17" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45890</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>352</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Karton 450x297x170 - univerzál</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
+        <v>533.336</v>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>ks</t>
+        </is>
+      </c>
+      <c r="G18" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45890</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>549</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Droëwors Piri Piri AFRIKA 40g</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>8000</v>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>ks</t>
+        </is>
+      </c>
+      <c r="G19" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45892</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>126</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Ocet jablečný (10l)</t>
+        </is>
+      </c>
+      <c r="E20" t="n">
+        <v>16.37724</v>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>kg</t>
+        </is>
+      </c>
+      <c r="G20" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>45892</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>210</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Směs GRIZZLY Foods Cracked Pepper (2kg)</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
+        <v>2.72943</v>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>kg</t>
+        </is>
+      </c>
+      <c r="G21" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>45892</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>245</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Sojová omáčka TAMARI</t>
+        </is>
+      </c>
+      <c r="E22" t="n">
+        <v>32.75448</v>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>kg</t>
+        </is>
+      </c>
+      <c r="G22" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>45892</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>297</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Sojový proteinový izolát emul. 90%</t>
+        </is>
+      </c>
+      <c r="E23" t="n">
+        <v>5.18595</v>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>kg</t>
+        </is>
+      </c>
+      <c r="G23" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>45892</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>190</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>GRIZZLY Hovězí vrchní šál PAD</t>
+        </is>
+      </c>
+      <c r="E24" t="n">
+        <v>272.9529</v>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>kg</t>
+        </is>
+      </c>
+      <c r="G24" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>45892</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>195</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>219</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Grizzly Foods Beef Jerky Cracked pepper - (etiketa přední)</t>
+        </is>
+      </c>
+      <c r="E25" t="n">
+        <v>100</v>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>ks</t>
+        </is>
+      </c>
+      <c r="G25" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>45892</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>195</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>223</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Grizzly Foods Beef Jerky Cracked pepper 1000g - (etiketa zadní)</t>
+        </is>
+      </c>
+      <c r="E26" t="n">
+        <v>100</v>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>ks</t>
+        </is>
+      </c>
+      <c r="G26" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>45892</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>195</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>224</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Grizzly Foods Beef Jerky Cracked pepper 50g</t>
+        </is>
+      </c>
+      <c r="E27" t="n">
+        <v>200</v>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>ks</t>
+        </is>
+      </c>
+      <c r="G27" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>45892</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>195</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>256</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Grizzly Foods doypack 1kg</t>
+        </is>
+      </c>
+      <c r="E28" t="n">
+        <v>100</v>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>ks</t>
+        </is>
+      </c>
+      <c r="G28" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>45892</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>195</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>87</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Display Beef Jerky 50g Grizzly Foods  (200x133x206)</t>
+        </is>
+      </c>
+      <c r="E29" t="n">
+        <v>16.6666</v>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>ks</t>
+        </is>
+      </c>
+      <c r="G29" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>45892</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>163</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Fine Gusto Karton hnědý velký DM (350x250x160)</t>
+        </is>
+      </c>
+      <c r="E30" t="n">
+        <v>50</v>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>ks</t>
+        </is>
+      </c>
+      <c r="G30" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>45897</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Hovězí ořez na Biltong VL70-30</t>
+        </is>
+      </c>
+      <c r="E31" t="n">
+        <v>1096.992</v>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>kg</t>
+        </is>
+      </c>
+      <c r="G31" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>45897</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Hovězí loupaná plec</t>
+        </is>
+      </c>
+      <c r="E32" t="n">
+        <v>1096.992</v>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>kg</t>
+        </is>
+      </c>
+      <c r="G32" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>45897</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>126</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Ocet jablečný (10l)</t>
+        </is>
+      </c>
+      <c r="E33" t="n">
+        <v>47.7984</v>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>kg</t>
+        </is>
+      </c>
+      <c r="G33" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>45897</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>210</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Směs GRIZZLY Foods Cracked Pepper (2kg)</t>
+        </is>
+      </c>
+      <c r="E34" t="n">
+        <v>2.4813</v>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>kg</t>
+        </is>
+      </c>
+      <c r="G34" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>45897</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>245</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Sojová omáčka TAMARI</t>
+        </is>
+      </c>
+      <c r="E35" t="n">
+        <v>29.7768</v>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>kg</t>
+        </is>
+      </c>
+      <c r="G35" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>45897</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>296</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Droewors Spice NO MSG 10kg</t>
+        </is>
+      </c>
+      <c r="E36" t="n">
+        <v>51.5592</v>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>kg</t>
+        </is>
+      </c>
+      <c r="G36" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>45897</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>297</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>Sojový proteinový izolát emul. 90%</t>
+        </is>
+      </c>
+      <c r="E37" t="n">
+        <v>4.7145</v>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>kg</t>
+        </is>
+      </c>
+      <c r="G37" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>45897</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>88</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>Koření Piri Piri 1kg</t>
+        </is>
+      </c>
+      <c r="E38" t="n">
+        <v>10.9704</v>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>kg</t>
+        </is>
+      </c>
+      <c r="G38" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>45897</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>190</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>GRIZZLY Hovězí vrchní šál PAD</t>
+        </is>
+      </c>
+      <c r="E39" t="n">
+        <v>248.139</v>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>kg</t>
+        </is>
+      </c>
+      <c r="G39" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>45897</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>195</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>219</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>Grizzly Foods Beef Jerky Cracked pepper - (etiketa přední)</t>
+        </is>
+      </c>
+      <c r="E40" t="n">
+        <v>100</v>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>ks</t>
+        </is>
+      </c>
+      <c r="G40" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>45897</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>195</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>223</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>Grizzly Foods Beef Jerky Cracked pepper 1000g - (etiketa zadní)</t>
+        </is>
+      </c>
+      <c r="E41" t="n">
+        <v>100</v>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>ks</t>
+        </is>
+      </c>
+      <c r="G41" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>45897</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>195</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>256</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>Grizzly Foods doypack 1kg</t>
+        </is>
+      </c>
+      <c r="E42" t="n">
+        <v>100</v>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>ks</t>
+        </is>
+      </c>
+      <c r="G42" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>45897</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>158</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>Fine Gusto  FG VÍKO k malý bílý display DRIED MEAT + LOGO FG (238x105x193)</t>
+        </is>
+      </c>
+      <c r="E43" t="n">
+        <v>800.004</v>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>ks</t>
+        </is>
+      </c>
+      <c r="G43" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>45897</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>163</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>Fine Gusto Karton hnědý velký DM (350x250x160)</t>
+        </is>
+      </c>
+      <c r="E44" t="n">
+        <v>50</v>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>ks</t>
+        </is>
+      </c>
+      <c r="G44" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>45897</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>Absorber HLS30R - kotouč (INDIANA)</t>
+        </is>
+      </c>
+      <c r="E45" t="n">
+        <v>12000</v>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>ks</t>
+        </is>
+      </c>
+      <c r="G45" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>45897</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>352</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>Karton 450x297x170 - univerzál</t>
+        </is>
+      </c>
+      <c r="E46" t="n">
+        <v>800.004</v>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>ks</t>
+        </is>
+      </c>
+      <c r="G46" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45897</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>549</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>Droëwors Piri Piri AFRIKA 40g</t>
+        </is>
+      </c>
+      <c r="E47" t="n">
+        <v>12000</v>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>ks</t>
+        </is>
+      </c>
+      <c r="G47" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>45899</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>126</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>Ocet jablečný (10l)</t>
+        </is>
+      </c>
+      <c r="E48" t="n">
+        <v>1.48884</v>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>kg</t>
+        </is>
+      </c>
+      <c r="G48" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>45899</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>210</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>Směs GRIZZLY Foods Cracked Pepper (2kg)</t>
+        </is>
+      </c>
+      <c r="E49" t="n">
+        <v>0.24813</v>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>kg</t>
+        </is>
+      </c>
+      <c r="G49" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>45899</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>245</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>Sojová omáčka TAMARI</t>
+        </is>
+      </c>
+      <c r="E50" t="n">
+        <v>2.97768</v>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>kg</t>
+        </is>
+      </c>
+      <c r="G50" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>45899</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>297</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>Sojový proteinový izolát emul. 90%</t>
+        </is>
+      </c>
+      <c r="E51" t="n">
+        <v>0.47145</v>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>kg</t>
+        </is>
+      </c>
+      <c r="G51" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>45899</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>190</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>GRIZZLY Hovězí vrchní šál PAD</t>
+        </is>
+      </c>
+      <c r="E52" t="n">
+        <v>24.8139</v>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>kg</t>
+        </is>
+      </c>
+      <c r="G52" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>45899</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>195</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>224</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>Grizzly Foods Beef Jerky Cracked pepper 50g</t>
+        </is>
+      </c>
+      <c r="E53" t="n">
+        <v>200</v>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>ks</t>
+        </is>
+      </c>
+      <c r="G53" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>45899</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>195</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>87</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>Display Beef Jerky 50g Grizzly Foods  (200x133x206)</t>
+        </is>
+      </c>
+      <c r="E54" t="n">
+        <v>16.6666</v>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>ks</t>
+        </is>
+      </c>
+      <c r="G54" t="b">
         <v>0</v>
       </c>
     </row>
